--- a/Code/Results/Cases/Case_3_184/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_184/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.468260283495795</v>
+        <v>1.489221558399606</v>
       </c>
       <c r="C2">
-        <v>0.154439220258709</v>
+        <v>0.06233418494747411</v>
       </c>
       <c r="D2">
-        <v>0.01709033149424144</v>
+        <v>0.02761335154428224</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.927306643259129</v>
+        <v>3.449164834304483</v>
       </c>
       <c r="G2">
-        <v>0.0008512747679381494</v>
+        <v>0.00260577339768102</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.137243812930564</v>
+        <v>2.139717580206479</v>
       </c>
       <c r="J2">
-        <v>0.06961286654357579</v>
+        <v>0.1694091139184017</v>
       </c>
       <c r="K2">
-        <v>1.459306814558204</v>
+        <v>1.261658422223206</v>
       </c>
       <c r="L2">
-        <v>0.2734991483468576</v>
+        <v>0.416834724591709</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.78558950014417</v>
+        <v>3.405052693263585</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.298880568691118</v>
+        <v>1.453414093748847</v>
       </c>
       <c r="C3">
-        <v>0.1335351404219836</v>
+        <v>0.05677461439502451</v>
       </c>
       <c r="D3">
-        <v>0.01490749054033458</v>
+        <v>0.02716868039836839</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.857756292771214</v>
+        <v>3.447532439062783</v>
       </c>
       <c r="G3">
-        <v>0.0008573666716187497</v>
+        <v>0.002609703877810129</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.113505429938535</v>
+        <v>2.14287825725755</v>
       </c>
       <c r="J3">
-        <v>0.06895596112149605</v>
+        <v>0.1699293051653861</v>
       </c>
       <c r="K3">
-        <v>1.283930659829934</v>
+        <v>1.222573582026769</v>
       </c>
       <c r="L3">
-        <v>0.2492445212682668</v>
+        <v>0.4129758485621835</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.828601808985653</v>
+        <v>3.424097129044696</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.196412831938346</v>
+        <v>1.432214001741812</v>
       </c>
       <c r="C4">
-        <v>0.1208814964436726</v>
+        <v>0.05339267125553704</v>
       </c>
       <c r="D4">
-        <v>0.01357172782266858</v>
+        <v>0.02690628017263563</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.817812142031755</v>
+        <v>3.447893372780314</v>
       </c>
       <c r="G4">
-        <v>0.0008612260114316877</v>
+        <v>0.002612246616642539</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.100508185474496</v>
+        <v>2.145598864110951</v>
       </c>
       <c r="J4">
-        <v>0.06862295120482997</v>
+        <v>0.1702953352610734</v>
       </c>
       <c r="K4">
-        <v>1.177815700097312</v>
+        <v>1.199276176095651</v>
       </c>
       <c r="L4">
-        <v>0.2346737814181381</v>
+        <v>0.4107949931515691</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.85679288223001</v>
+        <v>3.436615970012383</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.155006054209423</v>
+        <v>1.423772773556124</v>
       </c>
       <c r="C5">
-        <v>0.1157648072591542</v>
+        <v>0.05202239869191772</v>
       </c>
       <c r="D5">
-        <v>0.01302834686143228</v>
+        <v>0.02680204452699542</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.802191410964184</v>
+        <v>3.448383384429263</v>
       </c>
       <c r="G5">
-        <v>0.0008628293503160337</v>
+        <v>0.002613315445956853</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.095589344491536</v>
+        <v>2.146903718303079</v>
       </c>
       <c r="J5">
-        <v>0.06850436501558477</v>
+        <v>0.1704562414844943</v>
       </c>
       <c r="K5">
-        <v>1.134927855446563</v>
+        <v>1.189958732117503</v>
       </c>
       <c r="L5">
-        <v>0.2288112549514949</v>
+        <v>0.409953763695782</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.868715513208514</v>
+        <v>3.441925057096249</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.148150609997487</v>
+        <v>1.422383082853457</v>
       </c>
       <c r="C6">
-        <v>0.1149174225786709</v>
+        <v>0.05179534108093264</v>
       </c>
       <c r="D6">
-        <v>0.01293817146163789</v>
+        <v>0.02678489966505282</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.799636227490495</v>
+        <v>3.448485466541356</v>
       </c>
       <c r="G6">
-        <v>0.0008630974539265267</v>
+        <v>0.002613494898590904</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.094794844049098</v>
+        <v>2.147132239345147</v>
       </c>
       <c r="J6">
-        <v>0.06848569180363739</v>
+        <v>0.1704836698699097</v>
       </c>
       <c r="K6">
-        <v>1.127826697826578</v>
+        <v>1.18842224025596</v>
       </c>
       <c r="L6">
-        <v>0.2278421661233807</v>
+        <v>0.4098169487783565</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.87072112688756</v>
+        <v>3.442819162533027</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.195853035348051</v>
+        <v>1.432099358266981</v>
       </c>
       <c r="C7">
-        <v>0.1208123374326675</v>
+        <v>0.05337415938971901</v>
       </c>
       <c r="D7">
-        <v>0.01356439596469627</v>
+        <v>0.02690486347418286</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.817598863380923</v>
+        <v>3.447898592577886</v>
       </c>
       <c r="G7">
-        <v>0.0008612475096491084</v>
+        <v>0.002612260898899986</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.100440343732757</v>
+        <v>2.145615667409011</v>
       </c>
       <c r="J7">
-        <v>0.06862128332488382</v>
+        <v>0.1702974577123193</v>
       </c>
       <c r="K7">
-        <v>1.177235912693988</v>
+        <v>1.199149803122907</v>
       </c>
       <c r="L7">
-        <v>0.2345944202951102</v>
+        <v>0.4107834556515542</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.856951932626608</v>
+        <v>3.436686729857705</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.409517994894031</v>
+        <v>1.47671225391457</v>
       </c>
       <c r="C8">
-        <v>0.1471901484511875</v>
+        <v>0.06041063492597232</v>
       </c>
       <c r="D8">
-        <v>0.01633663697413468</v>
+        <v>0.02745783549200453</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.90272969266131</v>
+        <v>3.448319116344052</v>
       </c>
       <c r="G8">
-        <v>0.0008533510348223774</v>
+        <v>0.002607101830158084</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.1287193081994</v>
+        <v>2.140645539247551</v>
       </c>
       <c r="J8">
-        <v>0.0693714152324425</v>
+        <v>0.1695788097598658</v>
       </c>
       <c r="K8">
-        <v>1.398487586941627</v>
+        <v>1.248036615503025</v>
       </c>
       <c r="L8">
-        <v>0.2650658202914116</v>
+        <v>0.4154651071276021</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.80004209836131</v>
+        <v>3.411447876894592</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.842414748201151</v>
+        <v>1.570423254052571</v>
       </c>
       <c r="C9">
-        <v>0.2006456042351772</v>
+        <v>0.07446391638528382</v>
       </c>
       <c r="D9">
-        <v>0.0218181118286509</v>
+        <v>0.02862568696967926</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.093381767205813</v>
+        <v>3.459958352958864</v>
       </c>
       <c r="G9">
-        <v>0.000838774019855016</v>
+        <v>0.002598007051293458</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.197631191613276</v>
+        <v>2.137086491275447</v>
       </c>
       <c r="J9">
-        <v>0.07142805628553717</v>
+        <v>0.1685386934743498</v>
       </c>
       <c r="K9">
-        <v>1.846707684825247</v>
+        <v>1.349462152124147</v>
       </c>
       <c r="L9">
-        <v>0.3276525415416103</v>
+        <v>0.4261388077752599</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.703224218279402</v>
+        <v>3.368504960768149</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.171586665857035</v>
+        <v>1.643064025855324</v>
       </c>
       <c r="C10">
-        <v>0.2414118992084155</v>
+        <v>0.08495023558130299</v>
       </c>
       <c r="D10">
-        <v>0.02588768756604054</v>
+        <v>0.02953355680278946</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.250645312628052</v>
+        <v>3.475105468375645</v>
       </c>
       <c r="G10">
-        <v>0.0008285647951203344</v>
+        <v>0.002591941722973137</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.257875456588053</v>
+        <v>2.138244631171688</v>
       </c>
       <c r="J10">
-        <v>0.07333763726365916</v>
+        <v>0.1679985078660096</v>
       </c>
       <c r="K10">
-        <v>2.187670129635791</v>
+        <v>1.427375231913459</v>
       </c>
       <c r="L10">
-        <v>0.3757857767269286</v>
+        <v>0.4348886806815528</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.642078553503183</v>
+        <v>3.340948712825067</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.3243995411421</v>
+        <v>1.676933330408701</v>
       </c>
       <c r="C11">
-        <v>0.2603900113262512</v>
+        <v>0.08975714578832594</v>
       </c>
       <c r="D11">
-        <v>0.02775200157067559</v>
+        <v>0.02995718497299293</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.326592382477571</v>
+        <v>3.483429592252776</v>
       </c>
       <c r="G11">
-        <v>0.0008240162435015366</v>
+        <v>0.002589314950370005</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.287715904945983</v>
+        <v>2.139591206004454</v>
       </c>
       <c r="J11">
-        <v>0.07430303227287993</v>
+        <v>0.1678011847547189</v>
       </c>
       <c r="K11">
-        <v>2.346027358553499</v>
+        <v>1.463559469644196</v>
       </c>
       <c r="L11">
-        <v>0.3982535045045523</v>
+        <v>0.439065993177735</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.616670644857507</v>
+        <v>3.329280125310675</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.382766464442227</v>
+        <v>1.689877129948172</v>
       </c>
       <c r="C12">
-        <v>0.2676488233971099</v>
+        <v>0.09158275276573136</v>
       </c>
       <c r="D12">
-        <v>0.02846019018331702</v>
+        <v>0.03011911143151735</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.356046864613873</v>
+        <v>3.486787874414858</v>
       </c>
       <c r="G12">
-        <v>0.0008223064325672856</v>
+        <v>0.002588339190346833</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.299397680189372</v>
+        <v>2.140218997039327</v>
       </c>
       <c r="J12">
-        <v>0.07468343506630148</v>
+        <v>0.1677334065037748</v>
       </c>
       <c r="K12">
-        <v>2.40652584787648</v>
+        <v>1.477368053965336</v>
       </c>
       <c r="L12">
-        <v>0.4068530806640211</v>
+        <v>0.4406760952134334</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.607417983420021</v>
+        <v>3.324986242883028</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.370172877228129</v>
+        <v>1.687084198464788</v>
       </c>
       <c r="C13">
-        <v>0.2660821284507904</v>
+        <v>0.09118933731946299</v>
       </c>
       <c r="D13">
-        <v>0.02830756487094277</v>
+        <v>0.03008417095742288</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.349671369184151</v>
+        <v>3.486055441672008</v>
       </c>
       <c r="G13">
-        <v>0.0008226741284543548</v>
+        <v>0.00258854849679313</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.296864281755219</v>
+        <v>2.140078548631294</v>
       </c>
       <c r="J13">
-        <v>0.07460083346793667</v>
+        <v>0.1677476952167005</v>
       </c>
       <c r="K13">
-        <v>2.393471661720071</v>
+        <v>1.47438939901852</v>
       </c>
       <c r="L13">
-        <v>0.4049967793646516</v>
+        <v>0.4403280759682673</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.609393926245801</v>
+        <v>3.325905456969195</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.329191048377197</v>
+        <v>1.677995857120663</v>
       </c>
       <c r="C14">
-        <v>0.260985690697396</v>
+        <v>0.08990723227933017</v>
       </c>
       <c r="D14">
-        <v>0.0278102182457971</v>
+        <v>0.02997047666686825</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.329001320966512</v>
+        <v>3.483701749444293</v>
       </c>
       <c r="G14">
-        <v>0.0008238753300466907</v>
+        <v>0.002589234295209822</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.288669126787795</v>
+        <v>2.139640492425372</v>
       </c>
       <c r="J14">
-        <v>0.07433402548470269</v>
+        <v>0.1677954695345321</v>
       </c>
       <c r="K14">
-        <v>2.350993551994662</v>
+        <v>1.464693378830049</v>
       </c>
       <c r="L14">
-        <v>0.3989591058495421</v>
+        <v>0.4391978916181785</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.61590189531664</v>
+        <v>3.328924364081416</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.3041554356397</v>
+        <v>1.672444372063921</v>
       </c>
       <c r="C15">
-        <v>0.2578736902054857</v>
+        <v>0.08912260261183746</v>
       </c>
       <c r="D15">
-        <v>0.02750587798783499</v>
+        <v>0.02990103134060007</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.316432740580296</v>
+        <v>3.482286886530801</v>
       </c>
       <c r="G15">
-        <v>0.000824612709958134</v>
+        <v>0.002589656830324157</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.283700076229437</v>
+        <v>2.139387520744833</v>
       </c>
       <c r="J15">
-        <v>0.0741725577421164</v>
+        <v>0.1678256364433786</v>
       </c>
       <c r="K15">
-        <v>2.325045786723479</v>
+        <v>1.45876813740179</v>
       </c>
       <c r="L15">
-        <v>0.3952730683659809</v>
+        <v>0.4385092970629074</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.619936944573539</v>
+        <v>3.33078978215508</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.161666652106419</v>
+        <v>1.640867150817371</v>
       </c>
       <c r="C16">
-        <v>0.2401811790586095</v>
+        <v>0.08463683551437384</v>
       </c>
       <c r="D16">
-        <v>0.02576614075520922</v>
+        <v>0.02950608384290376</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.24577578255537</v>
+        <v>3.474590312272227</v>
       </c>
       <c r="G16">
-        <v>0.000828863884523147</v>
+        <v>0.00259211604450491</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.255976955009956</v>
+        <v>2.138173124017982</v>
       </c>
       <c r="J16">
-        <v>0.07327656951337858</v>
+        <v>0.1680123760230074</v>
       </c>
       <c r="K16">
-        <v>2.177391919540867</v>
+        <v>1.425025405719538</v>
       </c>
       <c r="L16">
-        <v>0.3743297400025085</v>
+        <v>0.4346196400568374</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.643789346116634</v>
+        <v>3.341728734996622</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.075080842898387</v>
+        <v>1.621706507714862</v>
       </c>
       <c r="C17">
-        <v>0.2294451270665689</v>
+        <v>0.08189439224948103</v>
       </c>
       <c r="D17">
-        <v>0.02470243781581871</v>
+        <v>0.02926650455250268</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.203600620895671</v>
+        <v>3.470235871492378</v>
       </c>
       <c r="G17">
-        <v>0.0008314955720076789</v>
+        <v>0.002593658530093714</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.239615031854761</v>
+        <v>2.137638080018348</v>
       </c>
       <c r="J17">
-        <v>0.07275231150721595</v>
+        <v>0.1681393211181152</v>
       </c>
       <c r="K17">
-        <v>2.087687907644209</v>
+        <v>1.404515037010214</v>
       </c>
       <c r="L17">
-        <v>0.3616344852688087</v>
+        <v>0.4322838504608058</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.659054042476427</v>
+        <v>3.348661529562136</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.02556422598451</v>
+        <v>1.610763453781658</v>
       </c>
       <c r="C18">
-        <v>0.2233101727762659</v>
+        <v>0.08032045527875198</v>
       </c>
       <c r="D18">
-        <v>0.02409182940118626</v>
+        <v>0.02912970703788176</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.179753415222507</v>
+        <v>3.46786625372097</v>
       </c>
       <c r="G18">
-        <v>0.0008330183275750638</v>
+        <v>0.002594558192488039</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.230431220486494</v>
+        <v>2.137407493862241</v>
       </c>
       <c r="J18">
-        <v>0.07245981592345885</v>
+        <v>0.1682168942006719</v>
       </c>
       <c r="K18">
-        <v>2.036394402182168</v>
+        <v>1.392787790108969</v>
       </c>
       <c r="L18">
-        <v>0.3543857136172051</v>
+        <v>0.4309589086146275</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.668059031410678</v>
+        <v>3.352730678862656</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.008846048286784</v>
+        <v>1.607071669596394</v>
       </c>
       <c r="C19">
-        <v>0.2212395903372339</v>
+        <v>0.07978813671907403</v>
       </c>
       <c r="D19">
-        <v>0.02388528521861133</v>
+        <v>0.02908356252758892</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.171747946338741</v>
+        <v>3.467087119383137</v>
       </c>
       <c r="G19">
-        <v>0.0008335354986458495</v>
+        <v>0.002594864946519078</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.227359831571995</v>
+        <v>2.137342673321172</v>
       </c>
       <c r="J19">
-        <v>0.0723623084571976</v>
+        <v>0.1682439424273561</v>
       </c>
       <c r="K19">
-        <v>2.019077280848876</v>
+        <v>1.388829135327114</v>
       </c>
       <c r="L19">
-        <v>0.3519402709639508</v>
+        <v>0.430513493128899</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.671145980953213</v>
+        <v>3.354122432937302</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.084268121546984</v>
+        <v>1.623738157895218</v>
       </c>
       <c r="C20">
-        <v>0.2305837752383013</v>
+        <v>0.08218597310728626</v>
       </c>
       <c r="D20">
-        <v>0.02481554372888439</v>
+        <v>0.02929190461395592</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.208047293541696</v>
+        <v>3.470685443488051</v>
       </c>
       <c r="G20">
-        <v>0.0008312144926726798</v>
+        <v>0.002593493040466105</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.241333058687886</v>
+        <v>2.137687050935668</v>
       </c>
       <c r="J20">
-        <v>0.07280717725794972</v>
+        <v>0.1681253360271739</v>
       </c>
       <c r="K20">
-        <v>2.097205362484971</v>
+        <v>1.406691180692263</v>
       </c>
       <c r="L20">
-        <v>0.3629803455634004</v>
+        <v>0.4325305807276294</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.657405631818733</v>
+        <v>3.347915076833232</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.341214342571732</v>
+        <v>1.680662117386134</v>
       </c>
       <c r="C21">
-        <v>0.2624805943796673</v>
+        <v>0.09028367229910828</v>
       </c>
       <c r="D21">
-        <v>0.02795623805597103</v>
+        <v>0.03000383068829393</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.335053237292584</v>
+        <v>3.484387492211013</v>
       </c>
       <c r="G21">
-        <v>0.0008235221747778798</v>
+        <v>0.002589032346216214</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.291065611986241</v>
+        <v>2.139765961145883</v>
       </c>
       <c r="J21">
-        <v>0.0744119832656942</v>
+        <v>0.1677812487472643</v>
       </c>
       <c r="K21">
-        <v>2.363455419269712</v>
+        <v>1.467538448799274</v>
       </c>
       <c r="L21">
-        <v>0.4007299541125491</v>
+        <v>0.439529088220425</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.61398014834478</v>
+        <v>3.328034251148452</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.512089066940462</v>
+        <v>1.71855418284332</v>
       </c>
       <c r="C22">
-        <v>0.2837532441887163</v>
+        <v>0.09560711117336496</v>
       </c>
       <c r="D22">
-        <v>0.03002194922721202</v>
+        <v>0.03047789355485975</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.422142461860858</v>
+        <v>3.494543968189831</v>
       </c>
       <c r="G22">
-        <v>0.0008185678029161702</v>
+        <v>0.002586227387229567</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.325811299380334</v>
+        <v>2.14181169982929</v>
       </c>
       <c r="J22">
-        <v>0.07554773739018117</v>
+        <v>0.1675968331543629</v>
       </c>
       <c r="K22">
-        <v>2.540600769239347</v>
+        <v>1.507925747626103</v>
       </c>
       <c r="L22">
-        <v>0.4259399998461078</v>
+        <v>0.4442676126160023</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.587760594912012</v>
+        <v>3.315768219785127</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.420599755626029</v>
+        <v>1.698267550012361</v>
       </c>
       <c r="C23">
-        <v>0.2723570968379079</v>
+        <v>0.09276302156104066</v>
       </c>
       <c r="D23">
-        <v>0.02891812127980842</v>
+        <v>0.03022408112012442</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.375265906063319</v>
+        <v>3.489013348789641</v>
       </c>
       <c r="G23">
-        <v>0.0008212057643046436</v>
+        <v>0.002587714379204411</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.307050413674631</v>
+        <v>2.140656985953484</v>
       </c>
       <c r="J23">
-        <v>0.07493328473744754</v>
+        <v>0.167691562408109</v>
       </c>
       <c r="K23">
-        <v>2.445745151744205</v>
+        <v>1.486313607099817</v>
       </c>
       <c r="L23">
-        <v>0.4124323434954817</v>
+        <v>0.4417235376961202</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.60154865171215</v>
+        <v>3.322248254827002</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.080113738910768</v>
+        <v>1.622819422505415</v>
       </c>
       <c r="C24">
-        <v>0.2300688768150536</v>
+        <v>0.0820541409042761</v>
       </c>
       <c r="D24">
-        <v>0.02476440567826188</v>
+        <v>0.02928041831768269</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.206035711934803</v>
+        <v>3.47048177516352</v>
       </c>
       <c r="G24">
-        <v>0.0008313415381693644</v>
+        <v>0.00259356781831901</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.24055564690687</v>
+        <v>2.137664671264588</v>
       </c>
       <c r="J24">
-        <v>0.07278234477631074</v>
+        <v>0.1681316443860581</v>
       </c>
       <c r="K24">
-        <v>2.092901658403605</v>
+        <v>1.405707145403113</v>
       </c>
       <c r="L24">
-        <v>0.3623717273935654</v>
+        <v>0.4324189781048773</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.658150166324802</v>
+        <v>3.348252288328737</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.723556130169328</v>
+        <v>1.544405897616286</v>
       </c>
       <c r="C25">
-        <v>0.1859564299074634</v>
+        <v>0.07063423156432691</v>
       </c>
       <c r="D25">
-        <v>0.02032895917721689</v>
+        <v>0.02830092385741523</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.03899799732838</v>
+        <v>3.455651574272721</v>
       </c>
       <c r="G25">
-        <v>0.0008426255293255691</v>
+        <v>0.002600358679022489</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.177409429632718</v>
+        <v>2.137386817539401</v>
       </c>
       <c r="J25">
-        <v>0.07080489311250915</v>
+        <v>0.1687806622331856</v>
       </c>
       <c r="K25">
-        <v>1.723630513736197</v>
+        <v>1.321428054108196</v>
       </c>
       <c r="L25">
-        <v>0.3103762137476309</v>
+        <v>0.4230916907515763</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.727738010978285</v>
+        <v>3.379420845064047</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_184/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_184/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.489221558399606</v>
+        <v>1.468260283495908</v>
       </c>
       <c r="C2">
-        <v>0.06233418494747411</v>
+        <v>0.1544392202586806</v>
       </c>
       <c r="D2">
-        <v>0.02761335154428224</v>
+        <v>0.01709033149403894</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>3.449164834304483</v>
+        <v>1.927306643259158</v>
       </c>
       <c r="G2">
-        <v>0.00260577339768102</v>
+        <v>0.0008512747679381036</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.139717580206479</v>
+        <v>1.137243812930592</v>
       </c>
       <c r="J2">
-        <v>0.1694091139184017</v>
+        <v>0.06961286654358645</v>
       </c>
       <c r="K2">
-        <v>1.261658422223206</v>
+        <v>1.459306814558232</v>
       </c>
       <c r="L2">
-        <v>0.416834724591709</v>
+        <v>0.2734991483467155</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>3.405052693263585</v>
+        <v>1.785589500144148</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.453414093748847</v>
+        <v>1.298880568691118</v>
       </c>
       <c r="C3">
-        <v>0.05677461439502451</v>
+        <v>0.1335351404218272</v>
       </c>
       <c r="D3">
-        <v>0.02716868039836839</v>
+        <v>0.01490749054034168</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>3.447532439062783</v>
+        <v>1.857756292771171</v>
       </c>
       <c r="G3">
-        <v>0.002609703877810129</v>
+        <v>0.0008573666715200206</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.14287825725755</v>
+        <v>1.113505429938527</v>
       </c>
       <c r="J3">
-        <v>0.1699293051653861</v>
+        <v>0.06895596112150315</v>
       </c>
       <c r="K3">
-        <v>1.222573582026769</v>
+        <v>1.283930659830077</v>
       </c>
       <c r="L3">
-        <v>0.4129758485621835</v>
+        <v>0.2492445212681247</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>3.424097129044696</v>
+        <v>1.828601808985638</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.432214001741812</v>
+        <v>1.196412831938289</v>
       </c>
       <c r="C4">
-        <v>0.05339267125553704</v>
+        <v>0.1208814964439284</v>
       </c>
       <c r="D4">
-        <v>0.02690628017263563</v>
+        <v>0.01357172782266147</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>3.447893372780314</v>
+        <v>1.817812142031713</v>
       </c>
       <c r="G4">
-        <v>0.002612246616642539</v>
+        <v>0.000861226011467531</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.145598864110951</v>
+        <v>1.100508185474517</v>
       </c>
       <c r="J4">
-        <v>0.1702953352610734</v>
+        <v>0.06862295120475537</v>
       </c>
       <c r="K4">
-        <v>1.199276176095651</v>
+        <v>1.177815700097398</v>
       </c>
       <c r="L4">
-        <v>0.4107949931515691</v>
+        <v>0.2346737814181665</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>3.436615970012383</v>
+        <v>1.856792882230046</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.423772773556124</v>
+        <v>1.155006054209309</v>
       </c>
       <c r="C5">
-        <v>0.05202239869191772</v>
+        <v>0.11576480725914</v>
       </c>
       <c r="D5">
-        <v>0.02680204452699542</v>
+        <v>0.01302834686154952</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>3.448383384429263</v>
+        <v>1.802191410964184</v>
       </c>
       <c r="G5">
-        <v>0.002613315445956853</v>
+        <v>0.000862829350278399</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.146903718303079</v>
+        <v>1.095589344491501</v>
       </c>
       <c r="J5">
-        <v>0.1704562414844943</v>
+        <v>0.06850436501555635</v>
       </c>
       <c r="K5">
-        <v>1.189958732117503</v>
+        <v>1.13492785544662</v>
       </c>
       <c r="L5">
-        <v>0.409953763695782</v>
+        <v>0.2288112549514381</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.441925057096249</v>
+        <v>1.868715513208429</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.422383082853457</v>
+        <v>1.148150609997543</v>
       </c>
       <c r="C6">
-        <v>0.05179534108093264</v>
+        <v>0.1149174225787988</v>
       </c>
       <c r="D6">
-        <v>0.02678489966505282</v>
+        <v>0.01293817146154552</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>3.448485466541356</v>
+        <v>1.799636227490538</v>
       </c>
       <c r="G6">
-        <v>0.002613494898590904</v>
+        <v>0.0008630974538877313</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.147132239345147</v>
+        <v>1.094794844049126</v>
       </c>
       <c r="J6">
-        <v>0.1704836698699097</v>
+        <v>0.06848569180361608</v>
       </c>
       <c r="K6">
-        <v>1.18842224025596</v>
+        <v>1.127826697826634</v>
       </c>
       <c r="L6">
-        <v>0.4098169487783565</v>
+        <v>0.2278421661234376</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>3.442819162533027</v>
+        <v>1.870721126887609</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.432099358266981</v>
+        <v>1.195853035347994</v>
       </c>
       <c r="C7">
-        <v>0.05337415938971901</v>
+        <v>0.1208123374325254</v>
       </c>
       <c r="D7">
-        <v>0.02690486347418286</v>
+        <v>0.01356439596480641</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>3.447898592577886</v>
+        <v>1.817598863380894</v>
       </c>
       <c r="G7">
-        <v>0.002612260898899986</v>
+        <v>0.0008612475096473559</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.145615667409011</v>
+        <v>1.100440343732771</v>
       </c>
       <c r="J7">
-        <v>0.1702974577123193</v>
+        <v>0.06862128332486606</v>
       </c>
       <c r="K7">
-        <v>1.199149803122907</v>
+        <v>1.177235912693959</v>
       </c>
       <c r="L7">
-        <v>0.4107834556515542</v>
+        <v>0.2345944202951245</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>3.436686729857705</v>
+        <v>1.8569519326266</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.47671225391457</v>
+        <v>1.409517994894003</v>
       </c>
       <c r="C8">
-        <v>0.06041063492597232</v>
+        <v>0.1471901484513012</v>
       </c>
       <c r="D8">
-        <v>0.02745783549200453</v>
+        <v>0.01633663697432652</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>3.448319116344052</v>
+        <v>1.902729692661325</v>
       </c>
       <c r="G8">
-        <v>0.002607101830158084</v>
+        <v>0.0008533510348210705</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.140645539247551</v>
+        <v>1.128719308199408</v>
       </c>
       <c r="J8">
-        <v>0.1695788097598658</v>
+        <v>0.06937141523252421</v>
       </c>
       <c r="K8">
-        <v>1.248036615503025</v>
+        <v>1.398487586941741</v>
       </c>
       <c r="L8">
-        <v>0.4154651071276021</v>
+        <v>0.2650658202913974</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>3.411447876894592</v>
+        <v>1.800042098361303</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.570423254052571</v>
+        <v>1.842414748201207</v>
       </c>
       <c r="C9">
-        <v>0.07446391638528382</v>
+        <v>0.200645604235163</v>
       </c>
       <c r="D9">
-        <v>0.02862568696967926</v>
+        <v>0.02181811182897775</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.459958352958864</v>
+        <v>2.093381767205841</v>
       </c>
       <c r="G9">
-        <v>0.002598007051293458</v>
+        <v>0.0008387740199740964</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.137086491275447</v>
+        <v>1.197631191613304</v>
       </c>
       <c r="J9">
-        <v>0.1685386934743498</v>
+        <v>0.07142805628559046</v>
       </c>
       <c r="K9">
-        <v>1.349462152124147</v>
+        <v>1.846707684825191</v>
       </c>
       <c r="L9">
-        <v>0.4261388077752599</v>
+        <v>0.3276525415416955</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3.368504960768149</v>
+        <v>1.703224218279402</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.643064025855324</v>
+        <v>2.171586665857205</v>
       </c>
       <c r="C10">
-        <v>0.08495023558130299</v>
+        <v>0.241411899208444</v>
       </c>
       <c r="D10">
-        <v>0.02953355680278946</v>
+        <v>0.02588768756604765</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.475105468375645</v>
+        <v>2.250645312628052</v>
       </c>
       <c r="G10">
-        <v>0.002591941722973137</v>
+        <v>0.0008285647952158878</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.138244631171688</v>
+        <v>1.257875456588039</v>
       </c>
       <c r="J10">
-        <v>0.1679985078660096</v>
+        <v>0.07333763726371245</v>
       </c>
       <c r="K10">
-        <v>1.427375231913459</v>
+        <v>2.187670129635848</v>
       </c>
       <c r="L10">
-        <v>0.4348886806815528</v>
+        <v>0.3757857767268575</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>3.340948712825067</v>
+        <v>1.642078553503197</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.676933330408701</v>
+        <v>2.324399541141986</v>
       </c>
       <c r="C11">
-        <v>0.08975714578832594</v>
+        <v>0.2603900113264217</v>
       </c>
       <c r="D11">
-        <v>0.02995718497299293</v>
+        <v>0.0277520015705619</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.483429592252776</v>
+        <v>2.326592382477571</v>
       </c>
       <c r="G11">
-        <v>0.002589314950370005</v>
+        <v>0.0008240162434512878</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.139591206004454</v>
+        <v>1.287715904945998</v>
       </c>
       <c r="J11">
-        <v>0.1678011847547189</v>
+        <v>0.07430303227286217</v>
       </c>
       <c r="K11">
-        <v>1.463559469644196</v>
+        <v>2.346027358553471</v>
       </c>
       <c r="L11">
-        <v>0.439065993177735</v>
+        <v>0.3982535045044955</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>3.329280125310675</v>
+        <v>1.616670644857507</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.689877129948172</v>
+        <v>2.382766464442284</v>
       </c>
       <c r="C12">
-        <v>0.09158275276573136</v>
+        <v>0.2676488233969678</v>
       </c>
       <c r="D12">
-        <v>0.03011911143151735</v>
+        <v>0.02846019018330992</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.486787874414858</v>
+        <v>2.356046864613887</v>
       </c>
       <c r="G12">
-        <v>0.002588339190346833</v>
+        <v>0.0008223064325660365</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.140218997039327</v>
+        <v>1.299397680189387</v>
       </c>
       <c r="J12">
-        <v>0.1677334065037748</v>
+        <v>0.07468343506634056</v>
       </c>
       <c r="K12">
-        <v>1.477368053965336</v>
+        <v>2.406525847876537</v>
       </c>
       <c r="L12">
-        <v>0.4406760952134334</v>
+        <v>0.406853080663879</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>3.324986242883028</v>
+        <v>1.607417983420063</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.687084198464788</v>
+        <v>2.370172877228242</v>
       </c>
       <c r="C13">
-        <v>0.09118933731946299</v>
+        <v>0.2660821284506198</v>
       </c>
       <c r="D13">
-        <v>0.03008417095742288</v>
+        <v>0.02830756487094277</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.486055441672008</v>
+        <v>2.349671369184151</v>
       </c>
       <c r="G13">
-        <v>0.00258854849679313</v>
+        <v>0.0008226741283346426</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.140078548631294</v>
+        <v>1.296864281755219</v>
       </c>
       <c r="J13">
-        <v>0.1677476952167005</v>
+        <v>0.07460083346802904</v>
       </c>
       <c r="K13">
-        <v>1.47438939901852</v>
+        <v>2.393471661720156</v>
       </c>
       <c r="L13">
-        <v>0.4403280759682673</v>
+        <v>0.4049967793646232</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>3.325905456969195</v>
+        <v>1.609393926245787</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.677995857120663</v>
+        <v>2.329191048377254</v>
       </c>
       <c r="C14">
-        <v>0.08990723227933017</v>
+        <v>0.2609856906973675</v>
       </c>
       <c r="D14">
-        <v>0.02997047666686825</v>
+        <v>0.0278102182457971</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.483701749444293</v>
+        <v>2.329001320966526</v>
       </c>
       <c r="G14">
-        <v>0.002589234295209822</v>
+        <v>0.0008238753300460245</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.139640492425372</v>
+        <v>1.288669126787823</v>
       </c>
       <c r="J14">
-        <v>0.1677954695345321</v>
+        <v>0.07433402548475243</v>
       </c>
       <c r="K14">
-        <v>1.464693378830049</v>
+        <v>2.350993551994662</v>
       </c>
       <c r="L14">
-        <v>0.4391978916181785</v>
+        <v>0.3989591058494284</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>3.328924364081416</v>
+        <v>1.615901895316654</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.672444372063921</v>
+        <v>2.304155435639757</v>
       </c>
       <c r="C15">
-        <v>0.08912260261183746</v>
+        <v>0.2578736902054857</v>
       </c>
       <c r="D15">
-        <v>0.02990103134060007</v>
+        <v>0.0275058779878421</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.482286886530801</v>
+        <v>2.316432740580311</v>
       </c>
       <c r="G15">
-        <v>0.002589656830324157</v>
+        <v>0.0008246127099096334</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.139387520744833</v>
+        <v>1.283700076229479</v>
       </c>
       <c r="J15">
-        <v>0.1678256364433786</v>
+        <v>0.07417255774217324</v>
       </c>
       <c r="K15">
-        <v>1.45876813740179</v>
+        <v>2.325045786723507</v>
       </c>
       <c r="L15">
-        <v>0.4385092970629074</v>
+        <v>0.3952730683660093</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>3.33078978215508</v>
+        <v>1.619936944573539</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.640867150817371</v>
+        <v>2.161666652106646</v>
       </c>
       <c r="C16">
-        <v>0.08463683551437384</v>
+        <v>0.2401811790590358</v>
       </c>
       <c r="D16">
-        <v>0.02950608384290376</v>
+        <v>0.02576614075510264</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.474590312272227</v>
+        <v>2.245775782555398</v>
       </c>
       <c r="G16">
-        <v>0.00259211604450491</v>
+        <v>0.000828863884427584</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.138173124017982</v>
+        <v>1.255976955009956</v>
       </c>
       <c r="J16">
-        <v>0.1680123760230074</v>
+        <v>0.07327656951344963</v>
       </c>
       <c r="K16">
-        <v>1.425025405719538</v>
+        <v>2.177391919540753</v>
       </c>
       <c r="L16">
-        <v>0.4346196400568374</v>
+        <v>0.374329740002409</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>3.341728734996622</v>
+        <v>1.643789346116691</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.621706507714862</v>
+        <v>2.075080842898331</v>
       </c>
       <c r="C17">
-        <v>0.08189439224948103</v>
+        <v>0.2294451270665689</v>
       </c>
       <c r="D17">
-        <v>0.02926650455250268</v>
+        <v>0.0247024378159395</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.470235871492378</v>
+        <v>2.203600620895671</v>
       </c>
       <c r="G17">
-        <v>0.002593658530093714</v>
+        <v>0.0008314955719012426</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.137638080018348</v>
+        <v>1.239615031854768</v>
       </c>
       <c r="J17">
-        <v>0.1681393211181152</v>
+        <v>0.07275231150715911</v>
       </c>
       <c r="K17">
-        <v>1.404515037010214</v>
+        <v>2.087687907644181</v>
       </c>
       <c r="L17">
-        <v>0.4322838504608058</v>
+        <v>0.3616344852687376</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>3.348661529562136</v>
+        <v>1.659054042476427</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.610763453781658</v>
+        <v>2.025564225984567</v>
       </c>
       <c r="C18">
-        <v>0.08032045527875198</v>
+        <v>0.2233101727763369</v>
       </c>
       <c r="D18">
-        <v>0.02912970703788176</v>
+        <v>0.0240918294009802</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.46786625372097</v>
+        <v>2.179753415222478</v>
       </c>
       <c r="G18">
-        <v>0.002594558192488039</v>
+        <v>0.0008330183275762442</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.137407493862241</v>
+        <v>1.230431220486466</v>
       </c>
       <c r="J18">
-        <v>0.1682168942006719</v>
+        <v>0.0724598159235228</v>
       </c>
       <c r="K18">
-        <v>1.392787790108969</v>
+        <v>2.036394402182026</v>
       </c>
       <c r="L18">
-        <v>0.4309589086146275</v>
+        <v>0.3543857136172477</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>3.352730678862656</v>
+        <v>1.668059031410579</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.607071669596394</v>
+        <v>2.008846048286728</v>
       </c>
       <c r="C19">
-        <v>0.07978813671907403</v>
+        <v>0.2212395903370492</v>
       </c>
       <c r="D19">
-        <v>0.02908356252758892</v>
+        <v>0.02388528521872502</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.467087119383137</v>
+        <v>2.171747946338726</v>
       </c>
       <c r="G19">
-        <v>0.002594864946519078</v>
+        <v>0.0008335354986440542</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.137342673321172</v>
+        <v>1.227359831571981</v>
       </c>
       <c r="J19">
-        <v>0.1682439424273561</v>
+        <v>0.07236230845716562</v>
       </c>
       <c r="K19">
-        <v>1.388829135327114</v>
+        <v>2.019077280848791</v>
       </c>
       <c r="L19">
-        <v>0.430513493128899</v>
+        <v>0.3519402709639792</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>3.354122432937302</v>
+        <v>1.671145980953185</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.623738157895218</v>
+        <v>2.084268121546813</v>
       </c>
       <c r="C20">
-        <v>0.08218597310728626</v>
+        <v>0.2305837752384008</v>
       </c>
       <c r="D20">
-        <v>0.02929190461395592</v>
+        <v>0.0248155437290265</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.470685443488051</v>
+        <v>2.208047293541668</v>
       </c>
       <c r="G20">
-        <v>0.002593493040466105</v>
+        <v>0.0008312144926065828</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.137687050935668</v>
+        <v>1.241333058687886</v>
       </c>
       <c r="J20">
-        <v>0.1681253360271739</v>
+        <v>0.0728071772579284</v>
       </c>
       <c r="K20">
-        <v>1.406691180692263</v>
+        <v>2.097205362484885</v>
       </c>
       <c r="L20">
-        <v>0.4325305807276294</v>
+        <v>0.3629803455635141</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3.347915076833232</v>
+        <v>1.65740563181869</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.680662117386134</v>
+        <v>2.341214342571732</v>
       </c>
       <c r="C21">
-        <v>0.09028367229910828</v>
+        <v>0.2624805943798947</v>
       </c>
       <c r="D21">
-        <v>0.03000383068829393</v>
+        <v>0.02795623805616287</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.484387492211013</v>
+        <v>2.335053237292612</v>
       </c>
       <c r="G21">
-        <v>0.002589032346216214</v>
+        <v>0.0008235221747747631</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.139765961145883</v>
+        <v>1.291065611986227</v>
       </c>
       <c r="J21">
-        <v>0.1677812487472643</v>
+        <v>0.07441198326571197</v>
       </c>
       <c r="K21">
-        <v>1.467538448799274</v>
+        <v>2.363455419269741</v>
       </c>
       <c r="L21">
-        <v>0.439529088220425</v>
+        <v>0.4007299541125349</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>3.328034251148452</v>
+        <v>1.613980148344694</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.71855418284332</v>
+        <v>2.512089066940348</v>
       </c>
       <c r="C22">
-        <v>0.09560711117336496</v>
+        <v>0.2837532441881763</v>
       </c>
       <c r="D22">
-        <v>0.03047789355485975</v>
+        <v>0.03002194922711254</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.494543968189831</v>
+        <v>2.422142461860858</v>
       </c>
       <c r="G22">
-        <v>0.002586227387229567</v>
+        <v>0.0008185678029137831</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.14181169982929</v>
+        <v>1.325811299380319</v>
       </c>
       <c r="J22">
-        <v>0.1675968331543629</v>
+        <v>0.07554773739016696</v>
       </c>
       <c r="K22">
-        <v>1.507925747626103</v>
+        <v>2.54060076923929</v>
       </c>
       <c r="L22">
-        <v>0.4442676126160023</v>
+        <v>0.4259399998460083</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>3.315768219785127</v>
+        <v>1.587760594912041</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.698267550012361</v>
+        <v>2.420599755625972</v>
       </c>
       <c r="C23">
-        <v>0.09276302156104066</v>
+        <v>0.2723570968384195</v>
       </c>
       <c r="D23">
-        <v>0.03022408112012442</v>
+        <v>0.02891812127981552</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.489013348789641</v>
+        <v>2.375265906063348</v>
       </c>
       <c r="G23">
-        <v>0.002587714379204411</v>
+        <v>0.0008212057643645957</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.140656985953484</v>
+        <v>1.307050413674659</v>
       </c>
       <c r="J23">
-        <v>0.167691562408109</v>
+        <v>0.07493328473734451</v>
       </c>
       <c r="K23">
-        <v>1.486313607099817</v>
+        <v>2.445745151744262</v>
       </c>
       <c r="L23">
-        <v>0.4417235376961202</v>
+        <v>0.4124323434955102</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>3.322248254827002</v>
+        <v>1.601548651712264</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.622819422505415</v>
+        <v>2.080113738910711</v>
       </c>
       <c r="C24">
-        <v>0.0820541409042761</v>
+        <v>0.2300688768150536</v>
       </c>
       <c r="D24">
-        <v>0.02928041831768269</v>
+        <v>0.02476440567847504</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.47048177516352</v>
+        <v>2.20603571193476</v>
       </c>
       <c r="G24">
-        <v>0.00259356781831901</v>
+        <v>0.0008313415380737377</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.137664671264588</v>
+        <v>1.240555646906856</v>
       </c>
       <c r="J24">
-        <v>0.1681316443860581</v>
+        <v>0.07278234477629653</v>
       </c>
       <c r="K24">
-        <v>1.405707145403113</v>
+        <v>2.09290165840369</v>
       </c>
       <c r="L24">
-        <v>0.4324189781048773</v>
+        <v>0.3623717273935512</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>3.348252288328737</v>
+        <v>1.658150166324845</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.544405897616286</v>
+        <v>1.7235561301693</v>
       </c>
       <c r="C25">
-        <v>0.07063423156432691</v>
+        <v>0.1859564299076055</v>
       </c>
       <c r="D25">
-        <v>0.02830092385741523</v>
+        <v>0.02032895917717426</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.455651574272721</v>
+        <v>2.03899799732838</v>
       </c>
       <c r="G25">
-        <v>0.002600358679022489</v>
+        <v>0.000842625529236542</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.137386817539401</v>
+        <v>1.177409429632725</v>
       </c>
       <c r="J25">
-        <v>0.1687806622331856</v>
+        <v>0.07080489311260152</v>
       </c>
       <c r="K25">
-        <v>1.321428054108196</v>
+        <v>1.723630513736111</v>
       </c>
       <c r="L25">
-        <v>0.4230916907515763</v>
+        <v>0.3103762137476025</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3.379420845064047</v>
+        <v>1.727738010978214</v>
       </c>
       <c r="O25">
         <v>0</v>
